--- a/REGULAR/MAYORS OFFICE/AMBION, LAMBERTO.xlsx
+++ b/REGULAR/MAYORS OFFICE/AMBION, LAMBERTO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2791BE28-97F9-4E1A-B7CE-2C05BC88C93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="315">
   <si>
     <t>PERIOD</t>
   </si>
@@ -977,12 +976,15 @@
   </si>
   <si>
     <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>11/24, 12/14/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1860,7 +1862,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1903,7 +1905,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1967,7 +1969,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,7 +2029,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,7 +2095,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2156,7 +2158,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,7 +2256,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +2315,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2378,7 +2380,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2421,7 +2423,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,7 +2498,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2684,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2748,7 +2750,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2806,7 +2808,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2872,7 +2874,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2928,7 +2930,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3003,7 +3005,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3046,7 +3048,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3112,7 +3114,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3168,7 +3170,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3266,7 +3268,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3329,7 +3331,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3378,7 +3380,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3395,26 +3397,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K579" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K579" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K579" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K579"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3426,13 +3428,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3441,14 +3443,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3752,7 +3754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3762,7 +3764,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3770,34 +3772,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K579"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A464" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A461" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="E466" sqref="E466"/>
+      <selection pane="bottomLeft" activeCell="K470" sqref="K470"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
@@ -3818,7 +3820,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3838,7 +3840,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3858,7 +3860,7 @@
       <c r="J4" s="62"/>
       <c r="K4" s="63"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="26" t="s">
         <v>18</v>
@@ -3866,7 +3868,7 @@
       <c r="I5" s="26"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="30"/>
@@ -3879,7 +3881,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -3896,7 +3898,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3931,7 +3933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
       <c r="B9" s="23" t="s">
         <v>23</v>
@@ -3940,7 +3942,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>132.51800000000009</v>
+        <v>133.01800000000009</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3950,12 +3952,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>268</v>
+        <v>270.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3980,7 +3982,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>45</v>
       </c>
@@ -4000,7 +4002,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>47</v>
       </c>
@@ -4018,7 +4020,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>35947</v>
       </c>
@@ -4038,7 +4040,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <f>EDATE(A13,1)</f>
         <v>35977</v>
@@ -4059,7 +4061,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <f t="shared" ref="A15:A20" si="0">EDATE(A14,1)</f>
         <v>36008</v>
@@ -4080,7 +4082,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <f t="shared" si="0"/>
         <v>36039</v>
@@ -4107,7 +4109,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
       <c r="B17" s="15" t="s">
         <v>49</v>
@@ -4126,7 +4128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <f>EDATE(A16,1)</f>
         <v>36069</v>
@@ -4147,7 +4149,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <f t="shared" si="0"/>
         <v>36100</v>
@@ -4168,7 +4170,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <f t="shared" si="0"/>
         <v>36130</v>
@@ -4189,7 +4191,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
         <v>51</v>
       </c>
@@ -4207,7 +4209,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>36161</v>
       </c>
@@ -4233,7 +4235,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <f>EDATE(A22,1)</f>
         <v>36192</v>
@@ -4260,7 +4262,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <f t="shared" ref="A24:A34" si="1">EDATE(A23,1)</f>
         <v>36220</v>
@@ -4287,7 +4289,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <f t="shared" si="1"/>
         <v>36251</v>
@@ -4312,7 +4314,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <f t="shared" si="1"/>
         <v>36281</v>
@@ -4337,7 +4339,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <f t="shared" si="1"/>
         <v>36312</v>
@@ -4362,7 +4364,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="20" t="s">
         <v>57</v>
@@ -4382,7 +4384,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <f>EDATE(A27,1)</f>
         <v>36342</v>
@@ -4409,7 +4411,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <f t="shared" si="1"/>
         <v>36373</v>
@@ -4430,7 +4432,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <f t="shared" si="1"/>
         <v>36404</v>
@@ -4451,7 +4453,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <f t="shared" si="1"/>
         <v>36434</v>
@@ -4476,7 +4478,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <f>EDATE(A32,1)</f>
         <v>36465</v>
@@ -4497,7 +4499,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <f t="shared" si="1"/>
         <v>36495</v>
@@ -4524,7 +4526,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="20" t="s">
         <v>64</v>
@@ -4546,7 +4548,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="51" t="s">
         <v>66</v>
       </c>
@@ -4564,7 +4566,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <v>36526</v>
       </c>
@@ -4584,7 +4586,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <f>EDATE(A37,1)</f>
         <v>36557</v>
@@ -4611,7 +4613,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="20" t="s">
         <v>53</v>
@@ -4630,7 +4632,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <f>EDATE(A38,1)</f>
         <v>36586</v>
@@ -4651,7 +4653,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <f t="shared" ref="A41:A49" si="2">EDATE(A40,1)</f>
         <v>36617</v>
@@ -4672,7 +4674,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <f t="shared" si="2"/>
         <v>36647</v>
@@ -4699,7 +4701,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <f t="shared" si="2"/>
         <v>36678</v>
@@ -4720,7 +4722,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <f t="shared" si="2"/>
         <v>36708</v>
@@ -4747,7 +4749,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <f t="shared" si="2"/>
         <v>36739</v>
@@ -4768,7 +4770,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
         <f t="shared" si="2"/>
         <v>36770</v>
@@ -4793,7 +4795,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
         <f t="shared" si="2"/>
         <v>36800</v>
@@ -4820,7 +4822,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
         <f>EDATE(A47,1)</f>
         <v>36831</v>
@@ -4847,7 +4849,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <f t="shared" si="2"/>
         <v>36861</v>
@@ -4868,7 +4870,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="51" t="s">
         <v>76</v>
       </c>
@@ -4886,7 +4888,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
         <v>36892</v>
       </c>
@@ -4912,7 +4914,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
         <f>EDATE(A51,1)</f>
         <v>36923</v>
@@ -4939,7 +4941,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="39">
         <f t="shared" ref="A53:A62" si="3">EDATE(A52,1)</f>
         <v>36951</v>
@@ -4960,7 +4962,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
         <f t="shared" si="3"/>
         <v>36982</v>
@@ -4981,7 +4983,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
         <f t="shared" si="3"/>
         <v>37012</v>
@@ -5002,7 +5004,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="39">
         <f t="shared" si="3"/>
         <v>37043</v>
@@ -5023,7 +5025,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
         <f t="shared" si="3"/>
         <v>37073</v>
@@ -5044,7 +5046,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <f t="shared" si="3"/>
         <v>37104</v>
@@ -5069,7 +5071,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <f>EDATE(A58,1)</f>
         <v>37135</v>
@@ -5096,7 +5098,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
         <f t="shared" si="3"/>
         <v>37165</v>
@@ -5117,7 +5119,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
         <f t="shared" si="3"/>
         <v>37196</v>
@@ -5144,7 +5146,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="39">
         <f t="shared" si="3"/>
         <v>37226</v>
@@ -5169,7 +5171,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="51" t="s">
         <v>84</v>
       </c>
@@ -5187,7 +5189,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
         <v>37257</v>
       </c>
@@ -5207,7 +5209,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <f>EDATE(A64,1)</f>
         <v>37288</v>
@@ -5228,7 +5230,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
         <f t="shared" ref="A66:A75" si="4">EDATE(A65,1)</f>
         <v>37316</v>
@@ -5249,7 +5251,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="39">
         <f t="shared" si="4"/>
         <v>37347</v>
@@ -5270,7 +5272,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39">
         <f t="shared" si="4"/>
         <v>37377</v>
@@ -5291,7 +5293,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="39">
         <f t="shared" si="4"/>
         <v>37408</v>
@@ -5312,7 +5314,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
         <f t="shared" si="4"/>
         <v>37438</v>
@@ -5333,7 +5335,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
         <f t="shared" si="4"/>
         <v>37469</v>
@@ -5354,7 +5356,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39">
         <f t="shared" si="4"/>
         <v>37500</v>
@@ -5375,7 +5377,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
         <f t="shared" si="4"/>
         <v>37530</v>
@@ -5396,7 +5398,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
         <f t="shared" si="4"/>
         <v>37561</v>
@@ -5417,7 +5419,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="39">
         <f t="shared" si="4"/>
         <v>37591</v>
@@ -5442,7 +5444,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="51" t="s">
         <v>85</v>
       </c>
@@ -5460,7 +5462,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
         <v>37622</v>
       </c>
@@ -5480,7 +5482,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
         <f>EDATE(A77,1)</f>
         <v>37653</v>
@@ -5507,7 +5509,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
         <f t="shared" ref="A79:A87" si="5">EDATE(A78,1)</f>
         <v>37681</v>
@@ -5528,7 +5530,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39">
         <f t="shared" si="5"/>
         <v>37712</v>
@@ -5555,7 +5557,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
         <f t="shared" si="5"/>
         <v>37742</v>
@@ -5576,7 +5578,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
         <f t="shared" si="5"/>
         <v>37773</v>
@@ -5597,7 +5599,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
         <f t="shared" si="5"/>
         <v>37803</v>
@@ -5624,7 +5626,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
         <f t="shared" si="5"/>
         <v>37834</v>
@@ -5645,7 +5647,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
         <f t="shared" si="5"/>
         <v>37865</v>
@@ -5670,7 +5672,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
         <f t="shared" si="5"/>
         <v>37895</v>
@@ -5695,7 +5697,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
         <f t="shared" si="5"/>
         <v>37926</v>
@@ -5722,7 +5724,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="20" t="s">
         <v>90</v>
@@ -5739,7 +5741,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
         <f>EDATE(A87,1)</f>
         <v>37956</v>
@@ -5766,7 +5768,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
       <c r="B90" s="20" t="s">
         <v>92</v>
@@ -5786,7 +5788,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="51" t="s">
         <v>93</v>
       </c>
@@ -5804,7 +5806,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
         <v>37987</v>
       </c>
@@ -5828,7 +5830,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
         <f>EDATE(A92,1)</f>
         <v>38018</v>
@@ -5853,7 +5855,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
         <f t="shared" ref="A94:A104" si="6">EDATE(A93,1)</f>
         <v>38047</v>
@@ -5880,7 +5882,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="39"/>
       <c r="B95" s="20" t="s">
         <v>96</v>
@@ -5897,7 +5899,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
         <f>EDATE(A94,1)</f>
         <v>38078</v>
@@ -5922,7 +5924,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
         <f t="shared" si="6"/>
         <v>38108</v>
@@ -5947,7 +5949,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
         <f t="shared" si="6"/>
         <v>38139</v>
@@ -5972,7 +5974,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
         <f t="shared" si="6"/>
         <v>38169</v>
@@ -5997,7 +5999,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
         <f t="shared" si="6"/>
         <v>38200</v>
@@ -6022,7 +6024,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
         <f t="shared" si="6"/>
         <v>38231</v>
@@ -6049,7 +6051,7 @@
         <v>42979</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39"/>
       <c r="B102" s="20" t="s">
         <v>102</v>
@@ -6066,7 +6068,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
         <f>EDATE(A101,1)</f>
         <v>38261</v>
@@ -6091,7 +6093,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
         <f t="shared" si="6"/>
         <v>38292</v>
@@ -6116,7 +6118,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
         <f>EDATE(A104,1)</f>
         <v>38322</v>
@@ -6141,7 +6143,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="51" t="s">
         <v>106</v>
       </c>
@@ -6159,7 +6161,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
         <v>38353</v>
       </c>
@@ -6185,7 +6187,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39"/>
       <c r="B108" s="20" t="s">
         <v>61</v>
@@ -6204,7 +6206,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39"/>
       <c r="B109" s="20" t="s">
         <v>107</v>
@@ -6221,7 +6223,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
         <f>EDATE(A107,1)</f>
         <v>38384</v>
@@ -6248,7 +6250,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39"/>
       <c r="B111" s="20" t="s">
         <v>112</v>
@@ -6267,7 +6269,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39"/>
       <c r="B112" s="20" t="s">
         <v>113</v>
@@ -6284,7 +6286,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="39">
         <f>EDATE(A110,1)</f>
         <v>38412</v>
@@ -6309,7 +6311,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39">
         <f t="shared" ref="A114:A124" si="7">EDATE(A113,1)</f>
         <v>38443</v>
@@ -6334,7 +6336,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
         <f t="shared" si="7"/>
         <v>38473</v>
@@ -6359,7 +6361,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
         <f t="shared" si="7"/>
         <v>38504</v>
@@ -6384,7 +6386,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
         <f t="shared" si="7"/>
         <v>38534</v>
@@ -6411,7 +6413,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39"/>
       <c r="B118" s="20" t="s">
         <v>61</v>
@@ -6433,7 +6435,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39"/>
       <c r="B119" s="20" t="s">
         <v>119</v>
@@ -6450,7 +6452,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
         <f>EDATE(A117,1)</f>
         <v>38565</v>
@@ -6477,7 +6479,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39"/>
       <c r="B121" s="20" t="s">
         <v>61</v>
@@ -6496,7 +6498,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39"/>
       <c r="B122" s="20" t="s">
         <v>120</v>
@@ -6513,7 +6515,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
         <f>EDATE(A120,1)</f>
         <v>38596</v>
@@ -6538,7 +6540,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39">
         <f t="shared" si="7"/>
         <v>38626</v>
@@ -6565,7 +6567,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39"/>
       <c r="B125" s="20" t="s">
         <v>124</v>
@@ -6582,7 +6584,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="39">
         <f>EDATE(A124,1)</f>
         <v>38657</v>
@@ -6607,7 +6609,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="39">
         <f>EDATE(A126,1)</f>
         <v>38687</v>
@@ -6632,7 +6634,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="39"/>
       <c r="B128" s="20" t="s">
         <v>105</v>
@@ -6649,7 +6651,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="51" t="s">
         <v>128</v>
       </c>
@@ -6667,7 +6669,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
         <v>38718</v>
       </c>
@@ -6691,7 +6693,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <f>EDATE(A130,1)</f>
         <v>38749</v>
@@ -6716,7 +6718,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="39">
         <f t="shared" ref="A132:A141" si="8">EDATE(A131,1)</f>
         <v>38777</v>
@@ -6741,7 +6743,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="39">
         <f t="shared" si="8"/>
         <v>38808</v>
@@ -6766,7 +6768,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="39">
         <f t="shared" si="8"/>
         <v>38838</v>
@@ -6787,7 +6789,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="39">
         <f t="shared" si="8"/>
         <v>38869</v>
@@ -6812,7 +6814,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="39">
         <f t="shared" si="8"/>
         <v>38899</v>
@@ -6837,7 +6839,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="39">
         <f t="shared" si="8"/>
         <v>38930</v>
@@ -6862,7 +6864,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="39">
         <f>EDATE(A137,1)</f>
         <v>38961</v>
@@ -6883,7 +6885,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="39">
         <f t="shared" si="8"/>
         <v>38991</v>
@@ -6904,7 +6906,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="39">
         <f t="shared" si="8"/>
         <v>39022</v>
@@ -6925,7 +6927,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="39">
         <f t="shared" si="8"/>
         <v>39052</v>
@@ -6950,7 +6952,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="51" t="s">
         <v>136</v>
       </c>
@@ -6968,7 +6970,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="39">
         <v>39083</v>
       </c>
@@ -6992,7 +6994,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="39">
         <f>EDATE(A143,1)</f>
         <v>39114</v>
@@ -7017,7 +7019,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="39">
         <f t="shared" ref="A145:A158" si="9">EDATE(A144,1)</f>
         <v>39142</v>
@@ -7042,7 +7044,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="39">
         <f t="shared" si="9"/>
         <v>39173</v>
@@ -7067,7 +7069,7 @@
       <c r="J146" s="12"/>
       <c r="K146" s="15"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="39">
         <f t="shared" si="9"/>
         <v>39203</v>
@@ -7092,7 +7094,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="39">
         <f t="shared" si="9"/>
         <v>39234</v>
@@ -7119,7 +7121,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="39"/>
       <c r="B149" s="20" t="s">
         <v>143</v>
@@ -7136,7 +7138,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="39">
         <f>EDATE(A148,1)</f>
         <v>39264</v>
@@ -7161,7 +7163,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="39">
         <f t="shared" si="9"/>
         <v>39295</v>
@@ -7188,7 +7190,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="39"/>
       <c r="B152" s="20" t="s">
         <v>144</v>
@@ -7205,7 +7207,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="39">
         <f>EDATE(A151,1)</f>
         <v>39326</v>
@@ -7232,7 +7234,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="39"/>
       <c r="B154" s="20" t="s">
         <v>146</v>
@@ -7249,7 +7251,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="39">
         <f>EDATE(A153,1)</f>
         <v>39356</v>
@@ -7276,7 +7278,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="39"/>
       <c r="B156" s="20" t="s">
         <v>148</v>
@@ -7293,7 +7295,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="39">
         <f>EDATE(A155,1)</f>
         <v>39387</v>
@@ -7318,7 +7320,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="39">
         <f t="shared" si="9"/>
         <v>39417</v>
@@ -7343,7 +7345,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="39"/>
       <c r="B159" s="20" t="s">
         <v>150</v>
@@ -7363,7 +7365,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="51" t="s">
         <v>151</v>
       </c>
@@ -7381,7 +7383,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="39">
         <v>39448</v>
       </c>
@@ -7407,7 +7409,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="39"/>
       <c r="B162" s="20" t="s">
         <v>52</v>
@@ -7426,7 +7428,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="39"/>
       <c r="B163" s="20" t="s">
         <v>152</v>
@@ -7443,7 +7445,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="39">
         <f>EDATE(A161,1)</f>
         <v>39479</v>
@@ -7470,7 +7472,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="39"/>
       <c r="B165" s="20" t="s">
         <v>153</v>
@@ -7490,7 +7492,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="39">
         <f>EDATE(A164,1)</f>
         <v>39508</v>
@@ -7517,7 +7519,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="39"/>
       <c r="B167" s="20" t="s">
         <v>156</v>
@@ -7534,7 +7536,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="39">
         <f>EDATE(A166,1)</f>
         <v>39539</v>
@@ -7559,7 +7561,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="39">
         <f t="shared" ref="A169:A170" si="10">EDATE(A168,1)</f>
         <v>39569</v>
@@ -7584,7 +7586,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="39">
         <f t="shared" si="10"/>
         <v>39600</v>
@@ -7611,7 +7613,7 @@
         <v>45080</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="39"/>
       <c r="B171" s="20" t="s">
         <v>69</v>
@@ -7630,7 +7632,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="39"/>
       <c r="B172" s="20" t="s">
         <v>159</v>
@@ -7647,7 +7649,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="39">
         <f>EDATE(A170,1)</f>
         <v>39630</v>
@@ -7674,7 +7676,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="39"/>
       <c r="B174" s="20" t="s">
         <v>52</v>
@@ -7691,7 +7693,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="39"/>
       <c r="B175" s="20" t="s">
         <v>161</v>
@@ -7708,7 +7710,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="39">
         <f>EDATE(A173,1)</f>
         <v>39661</v>
@@ -7735,7 +7737,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="39"/>
       <c r="B177" s="20" t="s">
         <v>52</v>
@@ -7754,7 +7756,7 @@
         <v>42217</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="39"/>
       <c r="B178" s="20" t="s">
         <v>163</v>
@@ -7771,7 +7773,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="39">
         <f>EDATE(A176,1)</f>
         <v>39692</v>
@@ -7798,7 +7800,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="39"/>
       <c r="B180" s="20" t="s">
         <v>61</v>
@@ -7817,7 +7819,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="39"/>
       <c r="B181" s="20" t="s">
         <v>166</v>
@@ -7834,7 +7836,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="39">
         <f>EDATE(A179,1)</f>
         <v>39722</v>
@@ -7859,7 +7861,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="39"/>
       <c r="B183" s="20" t="s">
         <v>169</v>
@@ -7876,7 +7878,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="39">
         <f>EDATE(A182,1)</f>
         <v>39753</v>
@@ -7903,7 +7905,7 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="39"/>
       <c r="B185" s="20" t="s">
         <v>52</v>
@@ -7922,7 +7924,7 @@
         <v>45244</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="39"/>
       <c r="B186" s="20" t="s">
         <v>52</v>
@@ -7939,7 +7941,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="39"/>
       <c r="B187" s="20" t="s">
         <v>170</v>
@@ -7956,7 +7958,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="39">
         <f>EDATE(A184,1)</f>
         <v>39783</v>
@@ -7983,7 +7985,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="39"/>
       <c r="B189" s="20" t="s">
         <v>83</v>
@@ -8005,7 +8007,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="39"/>
       <c r="B190" s="20" t="s">
         <v>171</v>
@@ -8025,7 +8027,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="51" t="s">
         <v>173</v>
       </c>
@@ -8043,7 +8045,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="39">
         <v>39814</v>
       </c>
@@ -8069,7 +8071,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="39"/>
       <c r="B193" s="20" t="s">
         <v>52</v>
@@ -8088,7 +8090,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="39"/>
       <c r="B194" s="20" t="s">
         <v>52</v>
@@ -8107,7 +8109,7 @@
         <v>46388</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="39"/>
       <c r="B195" s="20" t="s">
         <v>137</v>
@@ -8124,7 +8126,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="39">
         <f>EDATE(A192,1)</f>
         <v>39845</v>
@@ -8151,7 +8153,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="39"/>
       <c r="B197" s="20" t="s">
         <v>174</v>
@@ -8168,7 +8170,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="39">
         <f>EDATE(A196,1)</f>
         <v>39873</v>
@@ -8195,7 +8197,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="39"/>
       <c r="B199" s="20" t="s">
         <v>175</v>
@@ -8212,7 +8214,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="39">
         <f>EDATE(A198,1)</f>
         <v>39904</v>
@@ -8239,7 +8241,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="39"/>
       <c r="B201" s="20" t="s">
         <v>177</v>
@@ -8259,7 +8261,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="39">
         <f>EDATE(A200,1)</f>
         <v>39934</v>
@@ -8284,7 +8286,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="39">
         <f t="shared" ref="A203:A208" si="11">EDATE(A202,1)</f>
         <v>39965</v>
@@ -8309,7 +8311,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="39">
         <f t="shared" si="11"/>
         <v>39995</v>
@@ -8336,7 +8338,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="39"/>
       <c r="B205" s="20" t="s">
         <v>61</v>
@@ -8355,7 +8357,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="39"/>
       <c r="B206" s="20" t="s">
         <v>180</v>
@@ -8372,7 +8374,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="39">
         <f>EDATE(A204,1)</f>
         <v>40026</v>
@@ -8397,7 +8399,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="39">
         <f t="shared" si="11"/>
         <v>40057</v>
@@ -8424,7 +8426,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="39"/>
       <c r="B209" s="20" t="s">
         <v>112</v>
@@ -8443,7 +8445,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="39"/>
       <c r="B210" s="20" t="s">
         <v>61</v>
@@ -8465,7 +8467,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="39"/>
       <c r="B211" s="20" t="s">
         <v>184</v>
@@ -8482,7 +8484,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="39">
         <f>EDATE(A208,1)</f>
         <v>40087</v>
@@ -8509,7 +8511,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="39"/>
       <c r="B213" s="20" t="s">
         <v>188</v>
@@ -8526,7 +8528,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="39">
         <f>EDATE(A212,1)</f>
         <v>40118</v>
@@ -8553,7 +8555,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="39"/>
       <c r="B215" s="20" t="s">
         <v>189</v>
@@ -8570,7 +8572,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="39">
         <f>EDATE(A214,1)</f>
         <v>40148</v>
@@ -8597,7 +8599,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="39"/>
       <c r="B217" s="20" t="s">
         <v>190</v>
@@ -8617,7 +8619,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="39"/>
       <c r="B218" s="20" t="s">
         <v>83</v>
@@ -8637,7 +8639,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="51" t="s">
         <v>193</v>
       </c>
@@ -8655,7 +8657,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="39">
         <v>40179</v>
       </c>
@@ -8681,7 +8683,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="39"/>
       <c r="B221" s="20" t="s">
         <v>194</v>
@@ -8701,7 +8703,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="39">
         <f>EDATE(A220,1)</f>
         <v>40210</v>
@@ -8722,7 +8724,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="39">
         <f t="shared" ref="A223:A224" si="12">EDATE(A222,1)</f>
         <v>40238</v>
@@ -8743,7 +8745,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="39">
         <f t="shared" si="12"/>
         <v>40269</v>
@@ -8770,7 +8772,7 @@
         <v>47209</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="39">
         <f>EDATE(A224,1)</f>
         <v>40299</v>
@@ -8797,7 +8799,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="39"/>
       <c r="B226" s="20" t="s">
         <v>61</v>
@@ -8816,7 +8818,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="39">
         <f>EDATE(A225,1)</f>
         <v>40330</v>
@@ -8837,7 +8839,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="39">
         <f>EDATE(A227,1)</f>
         <v>40360</v>
@@ -8864,7 +8866,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="39"/>
       <c r="B229" s="20" t="s">
         <v>52</v>
@@ -8883,7 +8885,7 @@
         <v>45115</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="39"/>
       <c r="B230" s="20" t="s">
         <v>52</v>
@@ -8902,7 +8904,7 @@
         <v>46204</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="39">
         <f>EDATE(A228,1)</f>
         <v>40391</v>
@@ -8929,7 +8931,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="39"/>
       <c r="B232" s="20" t="s">
         <v>196</v>
@@ -8949,7 +8951,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="39">
         <f>EDATE(A231,1)</f>
         <v>40422</v>
@@ -8976,7 +8978,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="39"/>
       <c r="B234" s="20" t="s">
         <v>61</v>
@@ -8998,7 +9000,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="39">
         <f>EDATE(A233,1)</f>
         <v>40452</v>
@@ -9025,7 +9027,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="39"/>
       <c r="B236" s="20" t="s">
         <v>81</v>
@@ -9042,7 +9044,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="39"/>
       <c r="B237" s="20" t="s">
         <v>48</v>
@@ -9061,7 +9063,7 @@
         <v>47392</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="39">
         <f>EDATE(A235,1)</f>
         <v>40483</v>
@@ -9080,7 +9082,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="53"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="39">
         <f>EDATE(A238,1)</f>
         <v>40513</v>
@@ -9107,7 +9109,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="39"/>
       <c r="B240" s="20" t="s">
         <v>199</v>
@@ -9131,7 +9133,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="39"/>
       <c r="B241" s="20" t="s">
         <v>135</v>
@@ -9151,7 +9153,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="51" t="s">
         <v>201</v>
       </c>
@@ -9169,7 +9171,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="39">
         <v>40544</v>
       </c>
@@ -9195,7 +9197,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="39"/>
       <c r="B244" s="20" t="s">
         <v>61</v>
@@ -9214,7 +9216,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="39"/>
       <c r="B245" s="20" t="s">
         <v>202</v>
@@ -9231,7 +9233,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="39">
         <f>EDATE(A243,1)</f>
         <v>40575</v>
@@ -9258,7 +9260,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="39"/>
       <c r="B247" s="20" t="s">
         <v>206</v>
@@ -9275,7 +9277,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="39">
         <f>EDATE(A246,1)</f>
         <v>40603</v>
@@ -9302,7 +9304,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="39"/>
       <c r="B249" s="20" t="s">
         <v>175</v>
@@ -9319,7 +9321,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="39">
         <f>EDATE(A248,1)</f>
         <v>40634</v>
@@ -9346,7 +9348,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="39"/>
       <c r="B251" s="20" t="s">
         <v>167</v>
@@ -9363,7 +9365,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="39"/>
       <c r="B252" s="20" t="s">
         <v>52</v>
@@ -9385,7 +9387,7 @@
         <v>43191</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="39"/>
       <c r="B253" s="20" t="s">
         <v>101</v>
@@ -9402,7 +9404,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="39">
         <f>EDATE(A250,1)</f>
         <v>40664</v>
@@ -9427,7 +9429,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="39">
         <f t="shared" ref="A255:A263" si="13">EDATE(A254,1)</f>
         <v>40695</v>
@@ -9454,7 +9456,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="39"/>
       <c r="B256" s="20" t="s">
         <v>210</v>
@@ -9471,7 +9473,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="39">
         <f>EDATE(A255,1)</f>
         <v>40725</v>
@@ -9496,7 +9498,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="39">
         <f t="shared" si="13"/>
         <v>40756</v>
@@ -9523,7 +9525,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="39">
         <f t="shared" si="13"/>
         <v>40787</v>
@@ -9550,7 +9552,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="39"/>
       <c r="B260" s="20" t="s">
         <v>58</v>
@@ -9567,7 +9569,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="39"/>
       <c r="B261" s="20" t="s">
         <v>215</v>
@@ -9584,7 +9586,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="39">
         <f>EDATE(A259,1)</f>
         <v>40817</v>
@@ -9606,7 +9608,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="39">
         <f t="shared" si="13"/>
         <v>40848</v>
@@ -9633,7 +9635,7 @@
         <v>43405</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="39"/>
       <c r="B264" s="20" t="s">
         <v>61</v>
@@ -9652,7 +9654,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="39"/>
       <c r="B265" s="20" t="s">
         <v>217</v>
@@ -9669,7 +9671,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="39">
         <f>EDATE(A263,1)</f>
         <v>40878</v>
@@ -9696,7 +9698,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="39"/>
       <c r="B267" s="20" t="s">
         <v>83</v>
@@ -9716,7 +9718,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="39"/>
       <c r="B268" s="20" t="s">
         <v>221</v>
@@ -9733,7 +9735,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="51" t="s">
         <v>219</v>
       </c>
@@ -9751,7 +9753,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="39">
         <v>40909</v>
       </c>
@@ -9775,7 +9777,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="39">
         <f>EDATE(A270,1)</f>
         <v>40940</v>
@@ -9802,7 +9804,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="39"/>
       <c r="B272" s="20" t="s">
         <v>190</v>
@@ -9819,7 +9821,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="39">
         <f>EDATE(A271,1)</f>
         <v>40969</v>
@@ -9846,7 +9848,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="39"/>
       <c r="B274" s="20" t="s">
         <v>224</v>
@@ -9863,7 +9865,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="39">
         <f>EDATE(A273,1)</f>
         <v>41000</v>
@@ -9888,7 +9890,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="39">
         <f t="shared" ref="A276:A282" si="14">EDATE(A275,1)</f>
         <v>41030</v>
@@ -9915,7 +9917,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="39"/>
       <c r="B277" s="20" t="s">
         <v>227</v>
@@ -9932,7 +9934,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="39">
         <f>EDATE(A276,1)</f>
         <v>41061</v>
@@ -9959,7 +9961,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="39"/>
       <c r="B279" s="20" t="s">
         <v>52</v>
@@ -9978,7 +9980,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="39"/>
       <c r="B280" s="20" t="s">
         <v>229</v>
@@ -9995,7 +9997,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="39">
         <f>EDATE(A278,1)</f>
         <v>41091</v>
@@ -10020,7 +10022,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="39">
         <f t="shared" si="14"/>
         <v>41122</v>
@@ -10047,7 +10049,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="39"/>
       <c r="B283" s="20" t="s">
         <v>224</v>
@@ -10064,7 +10066,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="39">
         <f>EDATE(A282,1)</f>
         <v>41153</v>
@@ -10091,7 +10093,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="39"/>
       <c r="B285" s="20" t="s">
         <v>58</v>
@@ -10108,7 +10110,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="39"/>
       <c r="B286" s="20" t="s">
         <v>52</v>
@@ -10127,7 +10129,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="39"/>
       <c r="B287" s="20" t="s">
         <v>230</v>
@@ -10144,7 +10146,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="39">
         <f>EDATE(A284,1)</f>
         <v>41183</v>
@@ -10171,7 +10173,7 @@
         <v>43009</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="39"/>
       <c r="B289" s="20" t="s">
         <v>232</v>
@@ -10191,7 +10193,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="39">
         <f>EDATE(A288,1)</f>
         <v>41214</v>
@@ -10218,7 +10220,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="39"/>
       <c r="B291" s="20" t="s">
         <v>52</v>
@@ -10237,7 +10239,7 @@
         <v>47423</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="39"/>
       <c r="B292" s="20" t="s">
         <v>138</v>
@@ -10254,7 +10256,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="39">
         <f>EDATE(A290,1)</f>
         <v>41244</v>
@@ -10281,7 +10283,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="39"/>
       <c r="B294" s="20" t="s">
         <v>83</v>
@@ -10298,7 +10300,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="39"/>
       <c r="B295" s="20" t="s">
         <v>137</v>
@@ -10315,7 +10317,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="51" t="s">
         <v>220</v>
       </c>
@@ -10333,7 +10335,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="39">
         <v>41275</v>
       </c>
@@ -10359,7 +10361,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="39">
         <f>EDATE(A297,1)</f>
         <v>41306</v>
@@ -10386,7 +10388,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="39"/>
       <c r="B299" s="20" t="s">
         <v>52</v>
@@ -10408,7 +10410,7 @@
         <v>44593</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="39">
         <f>EDATE(A298,1)</f>
         <v>41334</v>
@@ -10435,7 +10437,7 @@
         <v>44996</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="39">
         <f t="shared" ref="A301:A311" si="15">EDATE(A300,1)</f>
         <v>41365</v>
@@ -10462,7 +10464,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="39">
         <f t="shared" si="15"/>
         <v>41395</v>
@@ -10489,7 +10491,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="39"/>
       <c r="B303" s="20" t="s">
         <v>61</v>
@@ -10511,7 +10513,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="39">
         <f>EDATE(A302,1)</f>
         <v>41426</v>
@@ -10532,7 +10534,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="39">
         <f t="shared" si="15"/>
         <v>41456</v>
@@ -10553,7 +10555,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="39">
         <f t="shared" si="15"/>
         <v>41487</v>
@@ -10574,7 +10576,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="39">
         <f t="shared" si="15"/>
         <v>41518</v>
@@ -10599,7 +10601,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="39"/>
       <c r="B308" s="20" t="s">
         <v>52</v>
@@ -10621,7 +10623,7 @@
         <v>46631</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="39">
         <f>EDATE(A307,1)</f>
         <v>41548</v>
@@ -10642,7 +10644,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="39">
         <f t="shared" si="15"/>
         <v>41579</v>
@@ -10663,7 +10665,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="39">
         <f t="shared" si="15"/>
         <v>41609</v>
@@ -10690,7 +10692,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="51" t="s">
         <v>239</v>
       </c>
@@ -10708,7 +10710,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="39">
         <v>41640</v>
       </c>
@@ -10734,7 +10736,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="39"/>
       <c r="B314" s="20" t="s">
         <v>196</v>
@@ -10751,7 +10753,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="39">
         <f>EDATE(A313,1)</f>
         <v>41671</v>
@@ -10776,7 +10778,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="39">
         <f t="shared" ref="A316:A326" si="16">EDATE(A315,1)</f>
         <v>41699</v>
@@ -10803,7 +10805,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="39"/>
       <c r="B317" s="20" t="s">
         <v>241</v>
@@ -10820,7 +10822,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="39">
         <f>EDATE(A316,1)</f>
         <v>41730</v>
@@ -10847,7 +10849,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="39">
         <f t="shared" si="16"/>
         <v>41760</v>
@@ -10872,7 +10874,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="39">
         <f t="shared" si="16"/>
         <v>41791</v>
@@ -10899,7 +10901,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="39"/>
       <c r="B321" s="20" t="s">
         <v>196</v>
@@ -10916,7 +10918,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="39">
         <f>EDATE(A320,1)</f>
         <v>41821</v>
@@ -10941,7 +10943,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="39">
         <f t="shared" si="16"/>
         <v>41852</v>
@@ -10968,7 +10970,7 @@
         <v>47331</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="39"/>
       <c r="B324" s="20" t="s">
         <v>131</v>
@@ -10985,7 +10987,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="39">
         <f>EDATE(A323,1)</f>
         <v>41883</v>
@@ -11010,7 +11012,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="39">
         <f t="shared" si="16"/>
         <v>41913</v>
@@ -11037,7 +11039,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="39"/>
       <c r="B327" s="20" t="s">
         <v>52</v>
@@ -11056,7 +11058,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="39"/>
       <c r="B328" s="20" t="s">
         <v>246</v>
@@ -11073,7 +11075,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="39">
         <f>EDATE(A326,1)</f>
         <v>41944</v>
@@ -11100,7 +11102,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="39"/>
       <c r="B330" s="20" t="s">
         <v>105</v>
@@ -11119,7 +11121,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="39"/>
       <c r="B331" s="20" t="s">
         <v>196</v>
@@ -11136,7 +11138,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="39">
         <f>EDATE(A329,1)</f>
         <v>41974</v>
@@ -11161,7 +11163,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="51" t="s">
         <v>250</v>
       </c>
@@ -11179,7 +11181,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="39">
         <v>42005</v>
       </c>
@@ -11205,7 +11207,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="39">
         <f>EDATE(A334,1)</f>
         <v>42036</v>
@@ -11230,7 +11232,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="39">
         <f t="shared" ref="A336:A347" si="17">EDATE(A335,1)</f>
         <v>42064</v>
@@ -11257,7 +11259,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="39"/>
       <c r="B337" s="20" t="s">
         <v>252</v>
@@ -11274,7 +11276,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="39">
         <f>EDATE(A336,1)</f>
         <v>42095</v>
@@ -11301,7 +11303,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="39"/>
       <c r="B339" s="20" t="s">
         <v>61</v>
@@ -11320,7 +11322,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="39"/>
       <c r="B340" s="20" t="s">
         <v>255</v>
@@ -11337,7 +11339,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="39">
         <f>EDATE(A338,1)</f>
         <v>42125</v>
@@ -11362,7 +11364,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="39">
         <f t="shared" si="17"/>
         <v>42156</v>
@@ -11389,7 +11391,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="39"/>
       <c r="B343" s="20" t="s">
         <v>256</v>
@@ -11406,7 +11408,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="39">
         <f>EDATE(A342,1)</f>
         <v>42186</v>
@@ -11431,7 +11433,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="39">
         <f t="shared" si="17"/>
         <v>42217</v>
@@ -11456,7 +11458,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="39">
         <f t="shared" si="17"/>
         <v>42248</v>
@@ -11481,7 +11483,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="39">
         <f t="shared" si="17"/>
         <v>42278</v>
@@ -11506,7 +11508,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="39"/>
       <c r="B348" s="20" t="s">
         <v>255</v>
@@ -11523,7 +11525,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="39">
         <f>EDATE(A347,1)</f>
         <v>42309</v>
@@ -11550,7 +11552,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="39"/>
       <c r="B350" s="20" t="s">
         <v>83</v>
@@ -11569,7 +11571,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="39"/>
       <c r="B351" s="20" t="s">
         <v>167</v>
@@ -11586,7 +11588,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="39"/>
       <c r="B352" s="20" t="s">
         <v>196</v>
@@ -11603,7 +11605,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="39">
         <f>EDATE(A349,1)</f>
         <v>42339</v>
@@ -11628,7 +11630,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="51" t="s">
         <v>262</v>
       </c>
@@ -11646,7 +11648,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="39">
         <v>42370</v>
       </c>
@@ -11672,7 +11674,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="39">
         <f>EDATE(A355,1)</f>
         <v>42401</v>
@@ -11699,7 +11701,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="39"/>
       <c r="B357" s="20" t="s">
         <v>52</v>
@@ -11718,7 +11720,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="39">
         <f>EDATE(A356,1)</f>
         <v>42430</v>
@@ -11745,7 +11747,7 @@
         <v>46813</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="39">
         <f t="shared" ref="A359:A368" si="18">EDATE(A358,1)</f>
         <v>42461</v>
@@ -11766,7 +11768,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="39">
         <f t="shared" si="18"/>
         <v>42491</v>
@@ -11793,7 +11795,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="39"/>
       <c r="B361" s="20" t="s">
         <v>52</v>
@@ -11812,7 +11814,7 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="39">
         <f>EDATE(A360,1)</f>
         <v>42522</v>
@@ -11833,7 +11835,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="39">
         <f t="shared" si="18"/>
         <v>42552</v>
@@ -11860,7 +11862,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="39">
         <f t="shared" si="18"/>
         <v>42583</v>
@@ -11881,7 +11883,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="39">
         <f t="shared" si="18"/>
         <v>42614</v>
@@ -11902,7 +11904,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="39">
         <f t="shared" si="18"/>
         <v>42644</v>
@@ -11923,7 +11925,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="39">
         <f>EDATE(A366,1)</f>
         <v>42675</v>
@@ -11944,7 +11946,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="39">
         <f t="shared" si="18"/>
         <v>42705</v>
@@ -11971,7 +11973,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="39"/>
       <c r="B369" s="20" t="s">
         <v>64</v>
@@ -11990,7 +11992,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="51" t="s">
         <v>267</v>
       </c>
@@ -12008,7 +12010,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="39">
         <v>42736</v>
       </c>
@@ -12034,7 +12036,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="39"/>
       <c r="B372" s="20" t="s">
         <v>52</v>
@@ -12053,7 +12055,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="39"/>
       <c r="B373" s="20" t="s">
         <v>52</v>
@@ -12072,7 +12074,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="39">
         <f>EDATE(A371,1)</f>
         <v>42767</v>
@@ -12099,7 +12101,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="39"/>
       <c r="B375" s="20" t="s">
         <v>61</v>
@@ -12118,7 +12120,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="39">
         <f>EDATE(A374,1)</f>
         <v>42795</v>
@@ -12139,7 +12141,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="39">
         <f t="shared" ref="A377:A385" si="19">EDATE(A376,1)</f>
         <v>42826</v>
@@ -12160,7 +12162,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="39">
         <f t="shared" si="19"/>
         <v>42856</v>
@@ -12181,7 +12183,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="39">
         <f t="shared" si="19"/>
         <v>42887</v>
@@ -12208,7 +12210,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="39">
         <f t="shared" si="19"/>
         <v>42917</v>
@@ -12229,7 +12231,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="39">
         <f t="shared" si="19"/>
         <v>42948</v>
@@ -12256,7 +12258,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="39">
         <f t="shared" si="19"/>
         <v>42979</v>
@@ -12277,7 +12279,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="39">
         <f t="shared" si="19"/>
         <v>43009</v>
@@ -12298,7 +12300,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="39">
         <f t="shared" si="19"/>
         <v>43040</v>
@@ -12323,7 +12325,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="39">
         <f t="shared" si="19"/>
         <v>43070</v>
@@ -12350,7 +12352,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="51" t="s">
         <v>273</v>
       </c>
@@ -12368,7 +12370,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="39">
         <v>43101</v>
       </c>
@@ -12388,7 +12390,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="39">
         <f>EDATE(A387,1)</f>
         <v>43132</v>
@@ -12415,7 +12417,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="39">
         <f t="shared" ref="A389:A397" si="20">EDATE(A388,1)</f>
         <v>43160</v>
@@ -12442,7 +12444,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="39">
         <f t="shared" si="20"/>
         <v>43191</v>
@@ -12463,7 +12465,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="39">
         <f t="shared" si="20"/>
         <v>43221</v>
@@ -12484,7 +12486,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="39">
         <f t="shared" si="20"/>
         <v>43252</v>
@@ -12511,7 +12513,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="39">
         <f t="shared" si="20"/>
         <v>43282</v>
@@ -12532,7 +12534,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="39">
         <f t="shared" si="20"/>
         <v>43313</v>
@@ -12553,7 +12555,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="39">
         <f t="shared" si="20"/>
         <v>43344</v>
@@ -12580,7 +12582,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="39">
         <f t="shared" si="20"/>
         <v>43374</v>
@@ -12601,7 +12603,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="39">
         <f t="shared" si="20"/>
         <v>43405</v>
@@ -12622,7 +12624,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="39">
         <f>EDATE(A397,1)</f>
         <v>43435</v>
@@ -12649,7 +12651,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="39"/>
       <c r="B399" s="20" t="s">
         <v>280</v>
@@ -12669,7 +12671,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="51" t="s">
         <v>281</v>
       </c>
@@ -12687,7 +12689,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="39">
         <v>43466</v>
       </c>
@@ -12713,7 +12715,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="39">
         <f>EDATE(A401,1)</f>
         <v>43497</v>
@@ -12740,7 +12742,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="39"/>
       <c r="B403" s="20" t="s">
         <v>69</v>
@@ -12759,7 +12761,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="39">
         <f>EDATE(A402,1)</f>
         <v>43525</v>
@@ -12780,7 +12782,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="39">
         <f t="shared" ref="A405:A412" si="21">EDATE(A404,1)</f>
         <v>43556</v>
@@ -12801,7 +12803,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="39">
         <f t="shared" si="21"/>
         <v>43586</v>
@@ -12822,7 +12824,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="39">
         <f t="shared" si="21"/>
         <v>43617</v>
@@ -12843,7 +12845,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="39">
         <f t="shared" si="21"/>
         <v>43647</v>
@@ -12864,7 +12866,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="39">
         <f t="shared" si="21"/>
         <v>43678</v>
@@ -12885,7 +12887,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="39">
         <f t="shared" si="21"/>
         <v>43709</v>
@@ -12906,7 +12908,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="39">
         <f t="shared" si="21"/>
         <v>43739</v>
@@ -12927,7 +12929,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="39">
         <f t="shared" si="21"/>
         <v>43770</v>
@@ -12954,7 +12956,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="39"/>
       <c r="B413" s="20" t="s">
         <v>72</v>
@@ -12973,7 +12975,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="39">
         <f>EDATE(A412,1)</f>
         <v>43800</v>
@@ -12994,7 +12996,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="51" t="s">
         <v>287</v>
       </c>
@@ -13012,7 +13014,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="39">
         <v>43831</v>
       </c>
@@ -13032,7 +13034,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="39">
         <f>EDATE(A416,1)</f>
         <v>43862</v>
@@ -13059,7 +13061,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="39"/>
       <c r="B418" s="20" t="s">
         <v>288</v>
@@ -13076,7 +13078,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="39">
         <f>EDATE(A417,1)</f>
         <v>43891</v>
@@ -13103,7 +13105,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="39">
         <v>43922</v>
       </c>
@@ -13123,7 +13125,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="39">
         <v>43952</v>
       </c>
@@ -13143,7 +13145,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="39">
         <v>43983</v>
       </c>
@@ -13163,7 +13165,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="39">
         <v>44013</v>
       </c>
@@ -13183,7 +13185,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="39">
         <v>44044</v>
       </c>
@@ -13203,7 +13205,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="39">
         <v>44075</v>
       </c>
@@ -13223,7 +13225,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="39">
         <v>44105</v>
       </c>
@@ -13243,7 +13245,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="39">
         <v>44136</v>
       </c>
@@ -13263,7 +13265,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="39">
         <v>44166</v>
       </c>
@@ -13287,7 +13289,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="51" t="s">
         <v>291</v>
       </c>
@@ -13305,7 +13307,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="39">
         <v>44197</v>
       </c>
@@ -13325,7 +13327,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="39">
         <v>44228</v>
       </c>
@@ -13345,7 +13347,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="39">
         <v>44256</v>
       </c>
@@ -13369,7 +13371,7 @@
         <v>44628</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="39"/>
       <c r="B433" s="20" t="s">
         <v>305</v>
@@ -13389,7 +13391,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="55"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="39">
         <v>44287</v>
       </c>
@@ -13413,7 +13415,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="39">
         <v>44317</v>
       </c>
@@ -13437,7 +13439,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="39">
         <v>44348</v>
       </c>
@@ -13463,7 +13465,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="39"/>
       <c r="B437" s="20" t="s">
         <v>305</v>
@@ -13483,7 +13485,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="39">
         <v>44378</v>
       </c>
@@ -13509,7 +13511,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="39"/>
       <c r="B439" s="20" t="s">
         <v>303</v>
@@ -13529,7 +13531,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="39">
         <v>44409</v>
       </c>
@@ -13553,7 +13555,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="39">
         <v>44440</v>
       </c>
@@ -13579,7 +13581,7 @@
         <v>44833</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="39">
         <v>44470</v>
       </c>
@@ -13603,7 +13605,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="39">
         <v>44501</v>
       </c>
@@ -13627,7 +13629,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="39">
         <v>44531</v>
       </c>
@@ -13647,7 +13649,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="39"/>
       <c r="B445" s="20" t="s">
         <v>298</v>
@@ -13667,7 +13669,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="51" t="s">
         <v>292</v>
       </c>
@@ -13685,7 +13687,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="39">
         <v>44562</v>
       </c>
@@ -13705,7 +13707,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="39">
         <v>44593</v>
       </c>
@@ -13725,7 +13727,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="39">
         <v>44621</v>
       </c>
@@ -13745,7 +13747,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="39">
         <v>44652</v>
       </c>
@@ -13765,7 +13767,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="39">
         <v>44682</v>
       </c>
@@ -13785,7 +13787,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="39">
         <v>44713</v>
       </c>
@@ -13805,7 +13807,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="39">
         <v>44743</v>
       </c>
@@ -13825,7 +13827,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="39">
         <v>44774</v>
       </c>
@@ -13845,7 +13847,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="39">
         <v>44805</v>
       </c>
@@ -13865,7 +13867,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="39">
         <v>44835</v>
       </c>
@@ -13885,7 +13887,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="39">
         <v>44866</v>
       </c>
@@ -13905,7 +13907,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="39">
         <v>44896</v>
       </c>
@@ -13929,7 +13931,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="51" t="s">
         <v>293</v>
       </c>
@@ -13947,7 +13949,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="39">
         <v>44957</v>
       </c>
@@ -13967,7 +13969,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="39">
         <v>44985</v>
       </c>
@@ -13993,7 +13995,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="39">
         <v>45016</v>
       </c>
@@ -14013,7 +14015,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="39">
         <v>45046</v>
       </c>
@@ -14039,7 +14041,7 @@
         <v>45043</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="39">
         <v>45077</v>
       </c>
@@ -14059,7 +14061,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="39">
         <v>45107</v>
       </c>
@@ -14079,7 +14081,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="39">
         <v>45138</v>
       </c>
@@ -14099,7 +14101,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="39">
         <v>45169</v>
       </c>
@@ -14119,49 +14121,57 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="39">
         <v>45199</v>
       </c>
       <c r="B468" s="20"/>
-      <c r="C468" s="13"/>
+      <c r="C468" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D468" s="38"/>
       <c r="E468" s="9"/>
       <c r="F468" s="20"/>
-      <c r="G468" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G468" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H468" s="38"/>
       <c r="I468" s="9"/>
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="39">
         <v>45230</v>
       </c>
       <c r="B469" s="20"/>
-      <c r="C469" s="13"/>
+      <c r="C469" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D469" s="38"/>
       <c r="E469" s="9"/>
       <c r="F469" s="20"/>
-      <c r="G469" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G469" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H469" s="38"/>
       <c r="I469" s="9"/>
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="39">
         <v>45260</v>
       </c>
-      <c r="B470" s="20"/>
+      <c r="B470" s="20" t="s">
+        <v>312</v>
+      </c>
       <c r="C470" s="13"/>
-      <c r="D470" s="38"/>
+      <c r="D470" s="38">
+        <v>2</v>
+      </c>
       <c r="E470" s="9"/>
       <c r="F470" s="20"/>
       <c r="G470" s="41" t="str">
@@ -14171,9 +14181,11 @@
       <c r="H470" s="38"/>
       <c r="I470" s="9"/>
       <c r="J470" s="11"/>
-      <c r="K470" s="20"/>
-    </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K470" s="20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="39">
         <v>45291</v>
       </c>
@@ -14191,7 +14203,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="51" t="s">
         <v>307</v>
       </c>
@@ -14209,7 +14221,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="39">
         <v>45322</v>
       </c>
@@ -14227,7 +14239,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="39">
         <v>45351</v>
       </c>
@@ -14245,7 +14257,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="39">
         <v>45382</v>
       </c>
@@ -14263,7 +14275,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="39">
         <v>45398</v>
       </c>
@@ -14281,7 +14293,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="39"/>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -14297,7 +14309,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="39"/>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -14313,7 +14325,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="39"/>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -14329,7 +14341,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="39"/>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -14345,7 +14357,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="39"/>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -14361,7 +14373,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="39"/>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -14377,7 +14389,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="39"/>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -14393,7 +14405,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="39"/>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -14409,7 +14421,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="39"/>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -14425,7 +14437,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="39"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -14441,7 +14453,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="39"/>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -14457,7 +14469,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="39"/>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -14473,7 +14485,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="39"/>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -14489,7 +14501,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="39"/>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -14505,7 +14517,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="39"/>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -14521,7 +14533,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="39"/>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -14537,7 +14549,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="39"/>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -14553,7 +14565,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="39"/>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -14569,7 +14581,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="39"/>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -14585,7 +14597,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="39"/>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -14598,7 +14610,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="39"/>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -14611,7 +14623,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="39"/>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -14624,7 +14636,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="39"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -14637,7 +14649,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="39"/>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -14650,7 +14662,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="39"/>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -14663,7 +14675,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="39"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -14676,7 +14688,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="39"/>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -14689,7 +14701,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="39"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -14702,7 +14714,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="39"/>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -14715,7 +14727,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="39"/>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -14728,7 +14740,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="39"/>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -14741,7 +14753,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="39"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -14754,7 +14766,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="39"/>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -14767,7 +14779,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="39"/>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -14780,7 +14792,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="39"/>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -14793,7 +14805,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="39"/>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -14806,7 +14818,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="39"/>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -14819,7 +14831,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="39"/>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -14832,7 +14844,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="39"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -14845,7 +14857,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="39"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -14858,7 +14870,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="39"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -14871,7 +14883,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="39"/>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -14884,7 +14896,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="39"/>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -14897,7 +14909,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="39"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -14910,7 +14922,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="39"/>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -14923,7 +14935,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="39"/>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -14936,7 +14948,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="39"/>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -14949,7 +14961,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="39"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -14962,7 +14974,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="39"/>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -14975,7 +14987,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="39"/>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -14988,7 +15000,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="39"/>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15001,7 +15013,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="39"/>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15014,7 +15026,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="39"/>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15027,7 +15039,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="39"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15040,7 +15052,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="39"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15053,7 +15065,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="39"/>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15066,7 +15078,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="39"/>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15079,7 +15091,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="39"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15092,7 +15104,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="39"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15105,7 +15117,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="39"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15118,7 +15130,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="39"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15131,7 +15143,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="39"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15144,7 +15156,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="39"/>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15157,7 +15169,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="39"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15170,7 +15182,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="39"/>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15183,7 +15195,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="39"/>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15196,7 +15208,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="39"/>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15209,7 +15221,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="39"/>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -15222,7 +15234,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="39"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -15235,7 +15247,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="39"/>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -15248,7 +15260,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="39"/>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -15261,7 +15273,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="39"/>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15274,7 +15286,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="39"/>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -15287,7 +15299,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="39"/>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15300,7 +15312,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="39"/>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15313,7 +15325,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="39"/>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15326,7 +15338,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="39"/>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15339,7 +15351,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="39"/>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15352,7 +15364,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="39"/>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15365,7 +15377,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="39"/>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15378,7 +15390,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="39"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -15391,7 +15403,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="39"/>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -15404,7 +15416,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="39"/>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -15417,7 +15429,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="39"/>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -15430,7 +15442,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="39"/>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -15443,7 +15455,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="39"/>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15456,7 +15468,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="39"/>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15469,7 +15481,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="39"/>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15482,7 +15494,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="39"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15495,7 +15507,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="39"/>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15508,7 +15520,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="39"/>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15521,7 +15533,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="39"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -15534,7 +15546,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="39"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -15547,7 +15559,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="39"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15560,7 +15572,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="39"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -15573,7 +15585,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="39"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -15586,7 +15598,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="39"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -15599,7 +15611,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="39"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -15612,7 +15624,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="39"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -15625,7 +15637,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="39"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -15638,7 +15650,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="39"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -15651,7 +15663,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="39"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -15664,7 +15676,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="15"/>
       <c r="C579" s="41"/>
@@ -15695,10 +15707,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15721,7 +15733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -15729,21 +15741,21 @@
       <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -15756,7 +15768,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
@@ -15785,7 +15797,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -15811,17 +15823,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="32"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>310</v>
       </c>
@@ -15845,10 +15857,10 @@
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>400.51800000000009</v>
+        <v>403.51800000000009</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
@@ -15876,7 +15888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -15902,7 +15914,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -15928,7 +15940,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -15954,7 +15966,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -15980,7 +15992,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -16006,7 +16018,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -16032,7 +16044,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -16058,7 +16070,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -16078,7 +16090,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -16098,7 +16110,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -16118,7 +16130,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -16139,7 +16151,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -16160,7 +16172,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -16181,7 +16193,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -16202,7 +16214,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -16223,7 +16235,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -16244,7 +16256,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -16265,7 +16277,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -16286,7 +16298,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -16307,7 +16319,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -16328,7 +16340,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -16349,7 +16361,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -16370,7 +16382,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -16391,7 +16403,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -16412,7 +16424,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -16433,7 +16445,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -16454,7 +16466,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -16475,7 +16487,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -16496,7 +16508,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -16517,7 +16529,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -16538,7 +16550,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -16547,7 +16559,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -16556,7 +16568,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -16565,7 +16577,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -16574,7 +16586,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -16583,7 +16595,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -16592,7 +16604,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -16601,7 +16613,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -16610,7 +16622,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -16619,7 +16631,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -16628,7 +16640,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -16637,7 +16649,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -16646,7 +16658,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -16655,7 +16667,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -16664,7 +16676,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -16673,7 +16685,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -16682,7 +16694,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -16691,7 +16703,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -16700,7 +16712,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -16709,7 +16721,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -16718,7 +16730,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -16727,7 +16739,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -16736,7 +16748,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -16745,7 +16757,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -16754,7 +16766,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -16763,7 +16775,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -16772,7 +16784,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -16781,7 +16793,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -16790,7 +16802,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -16799,7 +16811,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
